--- a/Training/于子源实训心得.xlsx
+++ b/Training/于子源实训心得.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Desktop\review\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5A254B-DC0B-4ECE-9E36-8D254CF64448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2771D7AD-28E6-4D8E-BE06-2FA8FABFED93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="564" windowWidth="18972" windowHeight="10152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.20~7.24" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>青岛英谷教育_学生实训心得</t>
   </si>
@@ -67,15 +67,6 @@
 （火）</t>
   </si>
   <si>
-    <t>加强了对输入法的掌握</t>
-  </si>
-  <si>
-    <t>纠正了日语读音</t>
-  </si>
-  <si>
-    <t>熟悉了名词和数字的读音</t>
-  </si>
-  <si>
     <t>2020/7/22
 （水）</t>
   </si>
@@ -108,7 +99,159 @@
 （金）</t>
   </si>
   <si>
-    <t>商务日语</t>
+    <t>于子源</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯定与否定句式的学习</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语发音纠正</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉假名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语输入法练习</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>名词和数字读音</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职日语应用（自我介绍）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字的使用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代词的使用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间的询问与回答方法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一类形容词时态变换与使用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二类形容词时态变换与使用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容词习题练习</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二类形容词的区别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解了动词分类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习了动词相关习题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>明白了自动词他动词的区别</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了动词变形</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解日本企业文化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解个人简历制作的注意事项</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语动词的变形和应用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用日语进行自我介绍</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成谓语句表格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握动词基本型的转换和常用句型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发相关日语学习熟练片假名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维导图 X-Mind 的用法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>语动词变形的te变</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在日企发邮件</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词的ない形</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ない形相关语法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何正确的书写电子邮件</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词ta型变化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词ta型相关语法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDCA的使用及相关知识</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语阶段考试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务日语的PDCA循环</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>于子源</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛农业大学</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -181,6 +324,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -674,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,6 +912,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,9 +928,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -816,7 +969,16 @@
     <xf numFmtId="56" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:X17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1299,31 +1461,31 @@
   <sheetData>
     <row r="1" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="3"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
     </row>
     <row r="4" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,7 +1516,9 @@
       <c r="S5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="12"/>
+      <c r="T5" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
@@ -1423,13 +1587,13 @@
       <c r="X8" s="22"/>
     </row>
     <row r="9" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="5">
         <v>1</v>
       </c>
@@ -1455,11 +1619,11 @@
       <c r="X9" s="25"/>
     </row>
     <row r="10" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="6">
         <v>2</v>
       </c>
@@ -1485,11 +1649,11 @@
       <c r="X10" s="28"/>
     </row>
     <row r="11" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="6">
         <v>3</v>
       </c>
@@ -1515,46 +1679,48 @@
       <c r="X11" s="28"/>
     </row>
     <row r="12" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="33"/>
     </row>
     <row r="13" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>14</v>
+      <c r="G13" s="34" t="s">
+        <v>24</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -1575,16 +1741,16 @@
       <c r="X13" s="25"/>
     </row>
     <row r="14" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>15</v>
+      <c r="G14" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -1605,16 +1771,16 @@
       <c r="X14" s="28"/>
     </row>
     <row r="15" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="6">
         <v>3</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>16</v>
+      <c r="G15" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -1635,46 +1801,48 @@
       <c r="X15" s="28"/>
     </row>
     <row r="16" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="7">
         <v>4</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="33"/>
     </row>
     <row r="17" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="A17" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="47" t="s">
-        <v>25</v>
+      <c r="G17" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -1695,15 +1863,17 @@
       <c r="X17" s="25"/>
     </row>
     <row r="18" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
@@ -1723,15 +1893,17 @@
       <c r="X18" s="28"/>
     </row>
     <row r="19" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="6">
         <v>3</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="30" t="s">
+        <v>30</v>
+      </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
@@ -1751,45 +1923,49 @@
       <c r="X19" s="28"/>
     </row>
     <row r="20" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="7">
         <v>4</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="33"/>
     </row>
     <row r="21" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="A21" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -1809,15 +1985,17 @@
       <c r="X21" s="25"/>
     </row>
     <row r="22" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
@@ -1837,15 +2015,17 @@
       <c r="X22" s="28"/>
     </row>
     <row r="23" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="6">
         <v>3</v>
       </c>
-      <c r="G23" s="33"/>
+      <c r="G23" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -1865,45 +2045,49 @@
       <c r="X23" s="28"/>
     </row>
     <row r="24" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="7">
         <v>4</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="31"/>
+      <c r="G24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="33"/>
     </row>
     <row r="25" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="A25" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="5">
         <v>1</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -1923,15 +2107,17 @@
       <c r="X25" s="25"/>
     </row>
     <row r="26" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="6">
         <v>2</v>
       </c>
-      <c r="G26" s="33"/>
+      <c r="G26" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
@@ -1951,15 +2137,17 @@
       <c r="X26" s="28"/>
     </row>
     <row r="27" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="6">
         <v>3</v>
       </c>
-      <c r="G27" s="33"/>
+      <c r="G27" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
@@ -1979,32 +2167,34 @@
       <c r="X27" s="28"/>
     </row>
     <row r="28" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="7">
         <v>4</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="36"/>
+      <c r="G28" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="37"/>
     </row>
     <row r="29" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
@@ -2082,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:X9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2104,31 +2294,31 @@
   <sheetData>
     <row r="1" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="3"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
     </row>
     <row r="4" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,7 +2327,9 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="50" t="s">
+        <v>60</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2147,7 +2339,9 @@
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="50" t="s">
+        <v>58</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -2155,7 +2349,9 @@
       <c r="S5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="12"/>
+      <c r="T5" s="51" t="s">
+        <v>59</v>
+      </c>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
@@ -2224,17 +2420,19 @@
       <c r="X8" s="22"/>
     </row>
     <row r="9" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+      <c r="A9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2254,15 +2452,17 @@
       <c r="X9" s="25"/>
     </row>
     <row r="10" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
@@ -2282,15 +2482,17 @@
       <c r="X10" s="28"/>
     </row>
     <row r="11" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="48" t="s">
+        <v>42</v>
+      </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
@@ -2310,45 +2512,49 @@
       <c r="X11" s="28"/>
     </row>
     <row r="12" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="31"/>
+      <c r="G12" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="33"/>
     </row>
     <row r="13" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="A13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="32"/>
+      <c r="G13" s="29" t="s">
+        <v>44</v>
+      </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -2368,15 +2574,17 @@
       <c r="X13" s="25"/>
     </row>
     <row r="14" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="6">
         <v>2</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
@@ -2396,15 +2604,17 @@
       <c r="X14" s="28"/>
     </row>
     <row r="15" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="6">
         <v>3</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
@@ -2424,45 +2634,49 @@
       <c r="X15" s="28"/>
     </row>
     <row r="16" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="7">
         <v>4</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="31"/>
+      <c r="G16" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="33"/>
     </row>
     <row r="17" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="A17" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="32"/>
+      <c r="G17" s="29" t="s">
+        <v>48</v>
+      </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -2482,15 +2696,17 @@
       <c r="X17" s="25"/>
     </row>
     <row r="18" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="48" t="s">
+        <v>49</v>
+      </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
@@ -2510,15 +2726,17 @@
       <c r="X18" s="28"/>
     </row>
     <row r="19" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="6">
         <v>3</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="48" t="s">
+        <v>50</v>
+      </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
@@ -2538,45 +2756,49 @@
       <c r="X19" s="28"/>
     </row>
     <row r="20" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="7">
         <v>4</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="31"/>
+      <c r="G20" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="33"/>
     </row>
     <row r="21" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="A21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -2596,15 +2818,17 @@
       <c r="X21" s="25"/>
     </row>
     <row r="22" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="33"/>
+      <c r="G22" s="48" t="s">
+        <v>53</v>
+      </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
@@ -2624,15 +2848,17 @@
       <c r="X22" s="28"/>
     </row>
     <row r="23" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="6">
         <v>3</v>
       </c>
-      <c r="G23" s="33"/>
+      <c r="G23" s="48" t="s">
+        <v>54</v>
+      </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
@@ -2652,45 +2878,47 @@
       <c r="X23" s="28"/>
     </row>
     <row r="24" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="7">
         <v>4</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="33"/>
     </row>
     <row r="25" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="A25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="5">
         <v>1</v>
       </c>
-      <c r="G25" s="32"/>
+      <c r="G25" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -2710,15 +2938,17 @@
       <c r="X25" s="25"/>
     </row>
     <row r="26" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="6">
         <v>2</v>
       </c>
-      <c r="G26" s="33"/>
+      <c r="G26" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
@@ -2738,15 +2968,17 @@
       <c r="X26" s="28"/>
     </row>
     <row r="27" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="6">
         <v>3</v>
       </c>
-      <c r="G27" s="33"/>
+      <c r="G27" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
@@ -2766,32 +2998,32 @@
       <c r="X27" s="28"/>
     </row>
     <row r="28" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="7">
         <v>4</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="36"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="37"/>
     </row>
     <row r="29" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
@@ -2822,12 +3054,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I2:R3"/>
-    <mergeCell ref="A21:E24"/>
     <mergeCell ref="A25:E28"/>
     <mergeCell ref="G26:X26"/>
     <mergeCell ref="G27:X27"/>
     <mergeCell ref="G28:X28"/>
+    <mergeCell ref="G11:X11"/>
+    <mergeCell ref="G12:X12"/>
+    <mergeCell ref="A9:E12"/>
+    <mergeCell ref="G13:X13"/>
+    <mergeCell ref="G14:X14"/>
+    <mergeCell ref="G15:X15"/>
+    <mergeCell ref="I2:R3"/>
+    <mergeCell ref="A21:E24"/>
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:X8"/>
+    <mergeCell ref="G9:X9"/>
+    <mergeCell ref="G10:X10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="T5:X5"/>
     <mergeCell ref="A29:X29"/>
     <mergeCell ref="A13:E16"/>
     <mergeCell ref="A17:E20"/>
@@ -2841,25 +3089,10 @@
     <mergeCell ref="G18:X18"/>
     <mergeCell ref="G19:X19"/>
     <mergeCell ref="G20:X20"/>
-    <mergeCell ref="G11:X11"/>
-    <mergeCell ref="G12:X12"/>
-    <mergeCell ref="G13:X13"/>
-    <mergeCell ref="G14:X14"/>
-    <mergeCell ref="G15:X15"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:X8"/>
-    <mergeCell ref="G9:X9"/>
-    <mergeCell ref="G10:X10"/>
-    <mergeCell ref="A9:E12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="T5:X5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>